--- a/src/main/resources/TestData_Tasks.xlsx
+++ b/src/main/resources/TestData_Tasks.xlsx
@@ -11,12 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>List name</t>
-  </si>
-  <si>
-    <t>Task title</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Title</t>
   </si>
   <si>
     <t>Due date</t>
@@ -25,13 +22,7 @@
     <t>Starred</t>
   </si>
   <si>
-    <t>Default</t>
-  </si>
-  <si>
     <t>Task 01</t>
-  </si>
-  <si>
-    <t>Newly created list 01</t>
   </si>
   <si>
     <t>Task 02 created in new list</t>
@@ -47,12 +38,13 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -72,14 +64,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -298,57 +293,44 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="21.0"/>
-    <col customWidth="1" min="2" max="2" width="42.29"/>
+    <col customWidth="1" min="1" max="1" width="34.43"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
         <v>44196.0</v>
       </c>
-      <c r="D2" s="1" t="b">
+      <c r="C2" s="2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="1" t="b">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
         <v>44196.0</v>
       </c>
     </row>
